--- a/Elecciones23J.xlsx
+++ b/Elecciones23J.xlsx
@@ -8,12 +8,12 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\dipus\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B15109FC-FADA-4856-8F65-A59D07552DEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{26C5CCB8-A14A-40A5-BD76-294CFDF336AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20640" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Circunscripciones" sheetId="1" r:id="rId1"/>
+    <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
 </workbook>
@@ -1473,8 +1473,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:ED54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47:XFD47"/>
+    <sheetView tabSelected="1" topLeftCell="AF1" workbookViewId="0">
+      <selection activeCell="AM12" sqref="AM12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="16.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
